--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha3</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H2">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>0.1017417646295555</v>
+        <v>0.07640239326533332</v>
       </c>
       <c r="R2">
-        <v>0.915675881666</v>
+        <v>0.687621539388</v>
       </c>
       <c r="S2">
-        <v>0.0009158813887659035</v>
+        <v>0.0006275736720054295</v>
       </c>
       <c r="T2">
-        <v>0.0009158813887659034</v>
+        <v>0.0006275736720054294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H3">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>33.46396808272144</v>
+        <v>40.44837243178011</v>
       </c>
       <c r="R3">
-        <v>301.175712744493</v>
+        <v>364.035351886021</v>
       </c>
       <c r="S3">
-        <v>0.3012433062549553</v>
+        <v>0.332245267834735</v>
       </c>
       <c r="T3">
-        <v>0.3012433062549553</v>
+        <v>0.332245267834735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H4">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>0.3381513620387778</v>
+        <v>2.362826029357556</v>
       </c>
       <c r="R4">
-        <v>3.043362258349</v>
+        <v>21.265434264218</v>
       </c>
       <c r="S4">
-        <v>0.003044045286660864</v>
+        <v>0.0194083895042952</v>
       </c>
       <c r="T4">
-        <v>0.003044045286660863</v>
+        <v>0.0194083895042952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.537538333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H5">
-        <v>4.612615</v>
+        <v>3.024001</v>
       </c>
       <c r="I5">
-        <v>0.5627014314157557</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J5">
-        <v>0.5627014314157556</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>0.1875807016922222</v>
+        <v>0.03024673000222223</v>
       </c>
       <c r="R5">
-        <v>1.68822631523</v>
+        <v>0.27222057002</v>
       </c>
       <c r="S5">
-        <v>0.001688605207478852</v>
+        <v>0.0002484483875751085</v>
       </c>
       <c r="T5">
-        <v>0.001688605207478851</v>
+        <v>0.0002484483875751084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J6">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>61.69732397721277</v>
+        <v>0.1165392555133333</v>
       </c>
       <c r="R6">
-        <v>555.2759157949149</v>
+        <v>1.04885329962</v>
       </c>
       <c r="S6">
-        <v>0.5554005375583425</v>
+        <v>0.0009572601771948235</v>
       </c>
       <c r="T6">
-        <v>0.5554005375583424</v>
+        <v>0.0009572601771948235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J7">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,43 +865,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>0.6234477060661111</v>
+        <v>61.69732397721277</v>
       </c>
       <c r="R7">
-        <v>5.611029354595</v>
+        <v>555.2759157949149</v>
       </c>
       <c r="S7">
-        <v>0.005612288649934349</v>
+        <v>0.5067853833690915</v>
       </c>
       <c r="T7">
-        <v>0.005612288649934348</v>
+        <v>0.5067853833690914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,61 +909,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3210486666666667</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H8">
-        <v>0.9631460000000001</v>
+        <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.1174959611548676</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J8">
-        <v>0.1174959611548676</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.03916815136577778</v>
+        <v>3.604101581118889</v>
       </c>
       <c r="R8">
-        <v>0.352513362292</v>
+        <v>32.43691423006999</v>
       </c>
       <c r="S8">
-        <v>0.0003525924776211382</v>
+        <v>0.02960429859426455</v>
       </c>
       <c r="T8">
-        <v>0.0003525924776211381</v>
+        <v>0.02960429859426455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3210486666666667</v>
+        <v>1.537538333333333</v>
       </c>
       <c r="H9">
-        <v>0.9631460000000001</v>
+        <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.1174959611548676</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J9">
-        <v>0.1174959611548676</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>12.88282911089622</v>
+        <v>0.04613640025555556</v>
       </c>
       <c r="R9">
-        <v>115.945461998066</v>
+        <v>0.4152276023</v>
       </c>
       <c r="S9">
-        <v>0.1159714838865085</v>
+        <v>0.0003789670569734464</v>
       </c>
       <c r="T9">
-        <v>0.1159714838865085</v>
+        <v>0.0003789670569734464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,155 +1018,155 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H10">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4054843333333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N10">
-        <v>1.216453</v>
+        <v>0.227388</v>
       </c>
       <c r="O10">
-        <v>0.009973830412717882</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P10">
-        <v>0.00997383041271788</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q10">
-        <v>0.1301802045708889</v>
+        <v>0.023784481616</v>
       </c>
       <c r="R10">
-        <v>1.171621841138</v>
+        <v>0.214060334544</v>
       </c>
       <c r="S10">
-        <v>0.001171884790737937</v>
+        <v>0.0001953671060101657</v>
       </c>
       <c r="T10">
-        <v>0.001171884790737937</v>
+        <v>0.0001953671060101657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03989166666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H11">
-        <v>0.119675</v>
+        <v>0.941388</v>
       </c>
       <c r="I11">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J11">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1220006666666667</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N11">
-        <v>0.366002</v>
+        <v>120.382021</v>
       </c>
       <c r="O11">
-        <v>0.003000890193633104</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P11">
-        <v>0.003000890193633103</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q11">
-        <v>0.004866809927777777</v>
+        <v>12.59179888723867</v>
       </c>
       <c r="R11">
-        <v>0.04380128935</v>
+        <v>113.326189985148</v>
       </c>
       <c r="S11">
-        <v>4.381111976721049E-05</v>
+        <v>0.1034297634810324</v>
       </c>
       <c r="T11">
-        <v>4.381111976721048E-05</v>
+        <v>0.1034297634810324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03989166666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H12">
-        <v>0.119675</v>
+        <v>0.941388</v>
       </c>
       <c r="I12">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J12">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1175,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.12734033333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N12">
-        <v>120.382021</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q12">
-        <v>1.600746484797222</v>
+        <v>0.7355606265093333</v>
       </c>
       <c r="R12">
-        <v>14.406718363175</v>
+        <v>6.620045638583999</v>
       </c>
       <c r="S12">
-        <v>0.01440995169384279</v>
+        <v>0.006041937479078033</v>
       </c>
       <c r="T12">
-        <v>0.01440995169384278</v>
+        <v>0.006041937479078032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03989166666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H13">
-        <v>0.119675</v>
+        <v>0.941388</v>
       </c>
       <c r="I13">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J13">
-        <v>0.01459937449899473</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4054843333333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N13">
-        <v>1.216453</v>
+        <v>0.09002</v>
       </c>
       <c r="O13">
-        <v>0.009973830412717882</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P13">
-        <v>0.00997383041271788</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q13">
-        <v>0.01617544586388889</v>
+        <v>0.009415971973333334</v>
       </c>
       <c r="R13">
-        <v>0.145579012775</v>
+        <v>0.08474374776</v>
       </c>
       <c r="S13">
-        <v>0.0001456116853847315</v>
+        <v>7.734333774445057E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001456116853847315</v>
+        <v>7.734333774445054E-05</v>
       </c>
     </row>
   </sheetData>
